--- a/console/Networking/agExcel/components/autoScaling/autoScalingInfo.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/autoScalingInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BD410-A5F6-3D4C-AD67-D9D7AE53E04D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24420" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -427,9 +433,6 @@
     <t>Scaling Information</t>
   </si>
   <si>
-    <t>Modification</t>
-  </si>
-  <si>
     <t>Minimum Number of Instances</t>
   </si>
   <si>
@@ -439,48 +442,58 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>'Normal'</t>
+  </si>
+  <si>
+    <t>'Scaling'</t>
+  </si>
+  <si>
+    <t>'Notification'</t>
+  </si>
+  <si>
+    <t>Mofidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Modify Scaling Information</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>'Normal'</t>
-  </si>
-  <si>
-    <t>'Scaling'</t>
-  </si>
-  <si>
-    <t>'Cooling'</t>
-  </si>
-  <si>
-    <t>'Default Removal Strategy'</t>
-  </si>
-  <si>
-    <t>'Remove the earliest instance created'</t>
-  </si>
-  <si>
-    <t>'Remove the latest instance created'</t>
-  </si>
-  <si>
-    <t>'Modify only in normal status'</t>
-  </si>
-  <si>
-    <t>'Notification'</t>
-  </si>
-  <si>
-    <t>Removal Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removal modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooling down'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default removal policy'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove the earliest created instance'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove the latest created instance'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only can modify in normal status'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -523,9 +536,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -897,10 +911,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -908,10 +922,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -919,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -930,10 +944,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -941,10 +955,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -952,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -963,10 +977,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -974,10 +988,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -985,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -996,65 +1010,65 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1062,7 +1076,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
